--- a/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
+++ b/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -460,113 +460,321 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45404</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45425</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45432</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45446</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45460</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45467</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45488</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B16" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
         <v>12</v>
       </c>
     </row>
@@ -581,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,49 +811,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>146</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>432</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
+++ b/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -805,7 +806,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -919,6 +920,733 @@
       </c>
       <c r="B15" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.19987665253871</v>
+      </c>
+      <c r="D2" t="n">
+        <v>212.4864789086359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-64.9494588861117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>215.2851665610637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-61.98435425811846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>210.8630939228354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-62.33552229011428</v>
+      </c>
+      <c r="D5" t="n">
+        <v>209.163796893517</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-63.44628683802269</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208.6358455470238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-64.35842268641335</v>
+      </c>
+      <c r="D7" t="n">
+        <v>218.6634555934569</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-67.35706522849576</v>
+      </c>
+      <c r="D8" t="n">
+        <v>213.2142790590892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-76.03931392406344</v>
+      </c>
+      <c r="D9" t="n">
+        <v>206.6729678873885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-69.66522955206125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>213.5634066529048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-69.11732962598512</v>
+      </c>
+      <c r="D11" t="n">
+        <v>209.115069965591</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-57.74299915966228</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222.360474232781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-69.8281811329943</v>
+      </c>
+      <c r="D13" t="n">
+        <v>211.619808120141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-62.90624656853009</v>
+      </c>
+      <c r="D14" t="n">
+        <v>211.9862119407166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-68.71275014065922</v>
+      </c>
+      <c r="D15" t="n">
+        <v>219.0923507080149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-66.42918282883309</v>
+      </c>
+      <c r="D16" t="n">
+        <v>220.6092580457613</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-77.44716237730496</v>
+      </c>
+      <c r="D17" t="n">
+        <v>205.0328481612531</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-73.29696722842719</v>
+      </c>
+      <c r="D18" t="n">
+        <v>205.7385523622323</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>75</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-66.46635055999741</v>
+      </c>
+      <c r="D19" t="n">
+        <v>215.4154799582075</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-70.00205756331449</v>
+      </c>
+      <c r="D20" t="n">
+        <v>225.4388018237953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-54.7877683945605</v>
+      </c>
+      <c r="D21" t="n">
+        <v>219.1398591116272</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-76.01112591628441</v>
+      </c>
+      <c r="D22" t="n">
+        <v>205.6521046762794</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-53.50912831771464</v>
+      </c>
+      <c r="D23" t="n">
+        <v>210.8024236583533</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-59.75188065444852</v>
+      </c>
+      <c r="D24" t="n">
+        <v>223.0986859373758</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-65.90460653184118</v>
+      </c>
+      <c r="D25" t="n">
+        <v>216.2901063179149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>75</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-65.89600589739975</v>
+      </c>
+      <c r="D26" t="n">
+        <v>208.9880055962775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-63.82103878587405</v>
+      </c>
+      <c r="D27" t="n">
+        <v>217.3592062114963</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-74.27788081587551</v>
+      </c>
+      <c r="D28" t="n">
+        <v>214.5610162845635</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-64.23320682892812</v>
+      </c>
+      <c r="D29" t="n">
+        <v>210.5387413766938</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-71.5672659651824</v>
+      </c>
+      <c r="D30" t="n">
+        <v>220.0231968377726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>75</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-64.90583331360511</v>
+      </c>
+      <c r="D31" t="n">
+        <v>207.1740056375054</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-68.81870031372529</v>
+      </c>
+      <c r="D32" t="n">
+        <v>219.3910470959515</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>75</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-66.51655367563471</v>
+      </c>
+      <c r="D33" t="n">
+        <v>215.708776424036</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-74.720585499547</v>
+      </c>
+      <c r="D34" t="n">
+        <v>209.3292727432034</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-56.04594229582679</v>
+      </c>
+      <c r="D35" t="n">
+        <v>220.6752314456259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-61.20202652334665</v>
+      </c>
+      <c r="D36" t="n">
+        <v>215.3090301784703</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-63.07707782553893</v>
+      </c>
+      <c r="D37" t="n">
+        <v>222.8532721446041</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-77.72811190516843</v>
+      </c>
+      <c r="D38" t="n">
+        <v>206.7158990211975</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>75</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-76.9216938177978</v>
+      </c>
+      <c r="D39" t="n">
+        <v>212.2532264535268</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>75</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-70.31965270716333</v>
+      </c>
+      <c r="D40" t="n">
+        <v>213.0833912937699</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>75</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-67.50642323043424</v>
+      </c>
+      <c r="D41" t="n">
+        <v>215.1837646869265</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>74</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-68.14314022055875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>217.4509612827292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>74</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-52.82965900091621</v>
+      </c>
+      <c r="D43" t="n">
+        <v>210.8270335520784</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>74</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-65.99097184254235</v>
+      </c>
+      <c r="D44" t="n">
+        <v>206.9030574651449</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>74</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-64.46195863629062</v>
+      </c>
+      <c r="D45" t="n">
+        <v>218.8777939908945</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>74</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-69.71956322740817</v>
+      </c>
+      <c r="D46" t="n">
+        <v>219.411803902972</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>74</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-60.37801682175088</v>
+      </c>
+      <c r="D47" t="n">
+        <v>215.5123689673633</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>74</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-68.3279847729157</v>
+      </c>
+      <c r="D48" t="n">
+        <v>203.6712669065625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>74</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-68.7319774626271</v>
+      </c>
+      <c r="D49" t="n">
+        <v>204.851288995486</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-64.89619132276059</v>
+      </c>
+      <c r="D50" t="n">
+        <v>219.0764935261596</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
+++ b/po_analysis_by_asin/B0C3Z74ZP5_po_data.xlsx
@@ -933,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,16 +952,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -970,12 +960,6 @@
       <c r="B2" t="n">
         <v>75</v>
       </c>
-      <c r="C2" t="n">
-        <v>-58.19987665253871</v>
-      </c>
-      <c r="D2" t="n">
-        <v>212.4864789086359</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -984,12 +968,6 @@
       <c r="B3" t="n">
         <v>75</v>
       </c>
-      <c r="C3" t="n">
-        <v>-64.9494588861117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>215.2851665610637</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -998,12 +976,6 @@
       <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
-        <v>-61.98435425811846</v>
-      </c>
-      <c r="D4" t="n">
-        <v>210.8630939228354</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1012,12 +984,6 @@
       <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
-        <v>-62.33552229011428</v>
-      </c>
-      <c r="D5" t="n">
-        <v>209.163796893517</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1026,12 +992,6 @@
       <c r="B6" t="n">
         <v>75</v>
       </c>
-      <c r="C6" t="n">
-        <v>-63.44628683802269</v>
-      </c>
-      <c r="D6" t="n">
-        <v>208.6358455470238</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1040,12 +1000,6 @@
       <c r="B7" t="n">
         <v>75</v>
       </c>
-      <c r="C7" t="n">
-        <v>-64.35842268641335</v>
-      </c>
-      <c r="D7" t="n">
-        <v>218.6634555934569</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1054,12 +1008,6 @@
       <c r="B8" t="n">
         <v>75</v>
       </c>
-      <c r="C8" t="n">
-        <v>-67.35706522849576</v>
-      </c>
-      <c r="D8" t="n">
-        <v>213.2142790590892</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1068,12 +1016,6 @@
       <c r="B9" t="n">
         <v>75</v>
       </c>
-      <c r="C9" t="n">
-        <v>-76.03931392406344</v>
-      </c>
-      <c r="D9" t="n">
-        <v>206.6729678873885</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1082,12 +1024,6 @@
       <c r="B10" t="n">
         <v>75</v>
       </c>
-      <c r="C10" t="n">
-        <v>-69.66522955206125</v>
-      </c>
-      <c r="D10" t="n">
-        <v>213.5634066529048</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1096,12 +1032,6 @@
       <c r="B11" t="n">
         <v>75</v>
       </c>
-      <c r="C11" t="n">
-        <v>-69.11732962598512</v>
-      </c>
-      <c r="D11" t="n">
-        <v>209.115069965591</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1110,12 +1040,6 @@
       <c r="B12" t="n">
         <v>75</v>
       </c>
-      <c r="C12" t="n">
-        <v>-57.74299915966228</v>
-      </c>
-      <c r="D12" t="n">
-        <v>222.360474232781</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1124,12 +1048,6 @@
       <c r="B13" t="n">
         <v>75</v>
       </c>
-      <c r="C13" t="n">
-        <v>-69.8281811329943</v>
-      </c>
-      <c r="D13" t="n">
-        <v>211.619808120141</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1138,12 +1056,6 @@
       <c r="B14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
-        <v>-62.90624656853009</v>
-      </c>
-      <c r="D14" t="n">
-        <v>211.9862119407166</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1152,12 +1064,6 @@
       <c r="B15" t="n">
         <v>75</v>
       </c>
-      <c r="C15" t="n">
-        <v>-68.71275014065922</v>
-      </c>
-      <c r="D15" t="n">
-        <v>219.0923507080149</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1166,12 +1072,6 @@
       <c r="B16" t="n">
         <v>75</v>
       </c>
-      <c r="C16" t="n">
-        <v>-66.42918282883309</v>
-      </c>
-      <c r="D16" t="n">
-        <v>220.6092580457613</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1180,12 +1080,6 @@
       <c r="B17" t="n">
         <v>75</v>
       </c>
-      <c r="C17" t="n">
-        <v>-77.44716237730496</v>
-      </c>
-      <c r="D17" t="n">
-        <v>205.0328481612531</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1194,12 +1088,6 @@
       <c r="B18" t="n">
         <v>75</v>
       </c>
-      <c r="C18" t="n">
-        <v>-73.29696722842719</v>
-      </c>
-      <c r="D18" t="n">
-        <v>205.7385523622323</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1208,12 +1096,6 @@
       <c r="B19" t="n">
         <v>75</v>
       </c>
-      <c r="C19" t="n">
-        <v>-66.46635055999741</v>
-      </c>
-      <c r="D19" t="n">
-        <v>215.4154799582075</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1222,12 +1104,6 @@
       <c r="B20" t="n">
         <v>75</v>
       </c>
-      <c r="C20" t="n">
-        <v>-70.00205756331449</v>
-      </c>
-      <c r="D20" t="n">
-        <v>225.4388018237953</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1236,12 +1112,6 @@
       <c r="B21" t="n">
         <v>75</v>
       </c>
-      <c r="C21" t="n">
-        <v>-54.7877683945605</v>
-      </c>
-      <c r="D21" t="n">
-        <v>219.1398591116272</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1250,12 +1120,6 @@
       <c r="B22" t="n">
         <v>75</v>
       </c>
-      <c r="C22" t="n">
-        <v>-76.01112591628441</v>
-      </c>
-      <c r="D22" t="n">
-        <v>205.6521046762794</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1264,12 +1128,6 @@
       <c r="B23" t="n">
         <v>75</v>
       </c>
-      <c r="C23" t="n">
-        <v>-53.50912831771464</v>
-      </c>
-      <c r="D23" t="n">
-        <v>210.8024236583533</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1278,12 +1136,6 @@
       <c r="B24" t="n">
         <v>75</v>
       </c>
-      <c r="C24" t="n">
-        <v>-59.75188065444852</v>
-      </c>
-      <c r="D24" t="n">
-        <v>223.0986859373758</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1292,12 +1144,6 @@
       <c r="B25" t="n">
         <v>75</v>
       </c>
-      <c r="C25" t="n">
-        <v>-65.90460653184118</v>
-      </c>
-      <c r="D25" t="n">
-        <v>216.2901063179149</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1306,12 +1152,6 @@
       <c r="B26" t="n">
         <v>75</v>
       </c>
-      <c r="C26" t="n">
-        <v>-65.89600589739975</v>
-      </c>
-      <c r="D26" t="n">
-        <v>208.9880055962775</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1320,12 +1160,6 @@
       <c r="B27" t="n">
         <v>75</v>
       </c>
-      <c r="C27" t="n">
-        <v>-63.82103878587405</v>
-      </c>
-      <c r="D27" t="n">
-        <v>217.3592062114963</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1334,12 +1168,6 @@
       <c r="B28" t="n">
         <v>75</v>
       </c>
-      <c r="C28" t="n">
-        <v>-74.27788081587551</v>
-      </c>
-      <c r="D28" t="n">
-        <v>214.5610162845635</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1348,12 +1176,6 @@
       <c r="B29" t="n">
         <v>75</v>
       </c>
-      <c r="C29" t="n">
-        <v>-64.23320682892812</v>
-      </c>
-      <c r="D29" t="n">
-        <v>210.5387413766938</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1362,12 +1184,6 @@
       <c r="B30" t="n">
         <v>75</v>
       </c>
-      <c r="C30" t="n">
-        <v>-71.5672659651824</v>
-      </c>
-      <c r="D30" t="n">
-        <v>220.0231968377726</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1376,12 +1192,6 @@
       <c r="B31" t="n">
         <v>75</v>
       </c>
-      <c r="C31" t="n">
-        <v>-64.90583331360511</v>
-      </c>
-      <c r="D31" t="n">
-        <v>207.1740056375054</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1390,12 +1200,6 @@
       <c r="B32" t="n">
         <v>75</v>
       </c>
-      <c r="C32" t="n">
-        <v>-68.81870031372529</v>
-      </c>
-      <c r="D32" t="n">
-        <v>219.3910470959515</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1404,12 +1208,6 @@
       <c r="B33" t="n">
         <v>75</v>
       </c>
-      <c r="C33" t="n">
-        <v>-66.51655367563471</v>
-      </c>
-      <c r="D33" t="n">
-        <v>215.708776424036</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1418,12 +1216,6 @@
       <c r="B34" t="n">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>-74.720585499547</v>
-      </c>
-      <c r="D34" t="n">
-        <v>209.3292727432034</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1432,12 +1224,6 @@
       <c r="B35" t="n">
         <v>75</v>
       </c>
-      <c r="C35" t="n">
-        <v>-56.04594229582679</v>
-      </c>
-      <c r="D35" t="n">
-        <v>220.6752314456259</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1446,12 +1232,6 @@
       <c r="B36" t="n">
         <v>75</v>
       </c>
-      <c r="C36" t="n">
-        <v>-61.20202652334665</v>
-      </c>
-      <c r="D36" t="n">
-        <v>215.3090301784703</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1460,12 +1240,6 @@
       <c r="B37" t="n">
         <v>75</v>
       </c>
-      <c r="C37" t="n">
-        <v>-63.07707782553893</v>
-      </c>
-      <c r="D37" t="n">
-        <v>222.8532721446041</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1474,12 +1248,6 @@
       <c r="B38" t="n">
         <v>75</v>
       </c>
-      <c r="C38" t="n">
-        <v>-77.72811190516843</v>
-      </c>
-      <c r="D38" t="n">
-        <v>206.7158990211975</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1488,12 +1256,6 @@
       <c r="B39" t="n">
         <v>75</v>
       </c>
-      <c r="C39" t="n">
-        <v>-76.9216938177978</v>
-      </c>
-      <c r="D39" t="n">
-        <v>212.2532264535268</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1502,12 +1264,6 @@
       <c r="B40" t="n">
         <v>75</v>
       </c>
-      <c r="C40" t="n">
-        <v>-70.31965270716333</v>
-      </c>
-      <c r="D40" t="n">
-        <v>213.0833912937699</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1516,12 +1272,6 @@
       <c r="B41" t="n">
         <v>75</v>
       </c>
-      <c r="C41" t="n">
-        <v>-67.50642323043424</v>
-      </c>
-      <c r="D41" t="n">
-        <v>215.1837646869265</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1530,12 +1280,6 @@
       <c r="B42" t="n">
         <v>74</v>
       </c>
-      <c r="C42" t="n">
-        <v>-68.14314022055875</v>
-      </c>
-      <c r="D42" t="n">
-        <v>217.4509612827292</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1544,12 +1288,6 @@
       <c r="B43" t="n">
         <v>74</v>
       </c>
-      <c r="C43" t="n">
-        <v>-52.82965900091621</v>
-      </c>
-      <c r="D43" t="n">
-        <v>210.8270335520784</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1558,12 +1296,6 @@
       <c r="B44" t="n">
         <v>74</v>
       </c>
-      <c r="C44" t="n">
-        <v>-65.99097184254235</v>
-      </c>
-      <c r="D44" t="n">
-        <v>206.9030574651449</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1572,12 +1304,6 @@
       <c r="B45" t="n">
         <v>74</v>
       </c>
-      <c r="C45" t="n">
-        <v>-64.46195863629062</v>
-      </c>
-      <c r="D45" t="n">
-        <v>218.8777939908945</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1586,12 +1312,6 @@
       <c r="B46" t="n">
         <v>74</v>
       </c>
-      <c r="C46" t="n">
-        <v>-69.71956322740817</v>
-      </c>
-      <c r="D46" t="n">
-        <v>219.411803902972</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1600,12 +1320,6 @@
       <c r="B47" t="n">
         <v>74</v>
       </c>
-      <c r="C47" t="n">
-        <v>-60.37801682175088</v>
-      </c>
-      <c r="D47" t="n">
-        <v>215.5123689673633</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1614,12 +1328,6 @@
       <c r="B48" t="n">
         <v>74</v>
       </c>
-      <c r="C48" t="n">
-        <v>-68.3279847729157</v>
-      </c>
-      <c r="D48" t="n">
-        <v>203.6712669065625</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1628,12 +1336,6 @@
       <c r="B49" t="n">
         <v>74</v>
       </c>
-      <c r="C49" t="n">
-        <v>-68.7319774626271</v>
-      </c>
-      <c r="D49" t="n">
-        <v>204.851288995486</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1641,12 +1343,6 @@
       </c>
       <c r="B50" t="n">
         <v>74</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-64.89619132276059</v>
-      </c>
-      <c r="D50" t="n">
-        <v>219.0764935261596</v>
       </c>
     </row>
   </sheetData>
